--- a/000_参考資料/【倉庫】テーブル定義書.xlsx
+++ b/000_参考資料/【倉庫】テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804BECEF-FAB0-874B-86BA-CEBAD78C5A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA57C631-0220-ED40-93C4-3C8A83E1C6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="880" windowWidth="33600" windowHeight="19520" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="33600" windowHeight="19520" tabRatio="758" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="63" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="130">
   <si>
     <t>初期値</t>
   </si>
@@ -612,10 +612,6 @@
   </si>
   <si>
     <t>作成者IDと更新者IDの両方が int 型であるため、ユーザーIDを int に変更します。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>在庫商品IDは自動増量で、varchar型は自動増量が難しいので、IDを int型 に変更します。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -14092,7 +14088,7 @@
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="AM17" sqref="AM17:AZ17"/>
+      <selection pane="bottomLeft" activeCell="AM10" sqref="AM10:AZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12"/>
@@ -14361,19 +14357,19 @@
       <c r="T5" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="82" t="s">
+      <c r="U5" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="W5" s="82" t="s">
+      <c r="W5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="X5" s="82" t="s">
+      <c r="X5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="83" t="s">
+      <c r="Y5" s="42" t="s">
         <v>60</v>
       </c>
       <c r="Z5" s="40">
@@ -14397,9 +14393,7 @@
         <v>63</v>
       </c>
       <c r="AL5" s="53"/>
-      <c r="AM5" s="84" t="s">
-        <v>130</v>
-      </c>
+      <c r="AM5" s="84"/>
       <c r="AN5" s="85"/>
       <c r="AO5" s="85"/>
       <c r="AP5" s="85"/>
@@ -17793,19 +17787,19 @@
       <c r="T5" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="81" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="82" t="s">
+      <c r="U5" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="W5" s="82" t="s">
+      <c r="W5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="X5" s="82" t="s">
+      <c r="X5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="Y5" s="83" t="s">
+      <c r="Y5" s="42" t="s">
         <v>60</v>
       </c>
       <c r="Z5" s="40">
@@ -17829,9 +17823,7 @@
         <v>63</v>
       </c>
       <c r="AL5" s="53"/>
-      <c r="AM5" s="84" t="s">
-        <v>130</v>
-      </c>
+      <c r="AM5" s="84"/>
       <c r="AN5" s="85"/>
       <c r="AO5" s="85"/>
       <c r="AP5" s="85"/>
